--- a/user_databases/Test1.xlsx
+++ b/user_databases/Test1.xlsx
@@ -466,12 +466,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Test2']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['TheBigCheese']</t>
         </is>
       </c>
     </row>
